--- a/Data/summary_after_scaling_preprocessing.xlsx
+++ b/Data/summary_after_scaling_preprocessing.xlsx
@@ -455,52 +455,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="C2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="D2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="E2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="F2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="G2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="H2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="I2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="J2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="K2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="L2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="M2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="N2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="O2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="P2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
       <c r="Q2" t="n">
-        <v>418727</v>
+        <v>48587</v>
       </c>
     </row>
     <row r="3">
@@ -510,52 +510,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16025.87056055616</v>
+        <v>18482.26115607055</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.83280445599344e-17</v>
+        <v>-2.620644580818119e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.493561965472975e-17</v>
+        <v>3.743777972597313e-17</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.824660593809732e-17</v>
+        <v>8.401564239285767e-17</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.407538492216023e-17</v>
+        <v>3.743777972597313e-17</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.838094728487393e-16</v>
+        <v>1.123133391779194e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.822483141059324e-16</v>
+        <v>2.293064008215854e-16</v>
       </c>
       <c r="I3" t="n">
-        <v>2.889365450600123e-15</v>
+        <v>-8.490771448789062e-16</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.512287686510307e-16</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.634974400754803e-17</v>
+        <v>1.871888986298657e-17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.547583449391158e-17</v>
+        <v>-7.019583698619961e-18</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.11383292722892e-17</v>
+        <v>2.807833479447985e-17</v>
       </c>
       <c r="N3" t="n">
-        <v>6.448264372463158e-18</v>
+        <v>-5.615666958895969e-17</v>
       </c>
       <c r="O3" t="n">
-        <v>3.019145255654329e-16</v>
+        <v>2.246266783558388e-16</v>
       </c>
       <c r="P3" t="n">
-        <v>1.509572627827164e-16</v>
+        <v>-1.179290061368154e-15</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.074943803531081e-17</v>
+        <v>9.608055187486073e-17</v>
       </c>
     </row>
     <row r="4">
@@ -565,52 +565,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22725.31225212248</v>
+        <v>28191.71108331252</v>
       </c>
       <c r="C4" t="n">
-        <v>1.000001194097576</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000001194097576</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="E4" t="n">
-        <v>1.000001194097576</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000001194097576</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="G4" t="n">
-        <v>1.000001194097575</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="H4" t="n">
-        <v>1.000001194097575</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000001194097576</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="J4" t="n">
-        <v>1.000001194097575</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="K4" t="n">
-        <v>1.000001194097575</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="L4" t="n">
-        <v>1.000001194097575</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="M4" t="n">
-        <v>1.000001194097576</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000001194097576</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="O4" t="n">
-        <v>1.000001194097575</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="P4" t="n">
-        <v>1.000001194097576</v>
+        <v>1.000010290977386</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.000001194097576</v>
+        <v>1.000010290977386</v>
       </c>
     </row>
     <row r="5">
@@ -623,49 +623,49 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.6572643773952</v>
+        <v>-1.378016816427322</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.417431134306979</v>
+        <v>-1.422109209625639</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2742615922907728</v>
+        <v>-0.2760353945003954</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.884891523344725</v>
+        <v>-0.7653011471062969</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.668731741970686</v>
+        <v>-1.277366054068879</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.365558081091548</v>
+        <v>-2.598882644753269</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.93570388330485</v>
+        <v>-1.662385164068257</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4252814420219478</v>
+        <v>-0.4369634059966164</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1734391055621043</v>
+        <v>-0.1613729815367844</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.08485162839648244</v>
+        <v>-0.08870602236863609</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.2768346321629915</v>
+        <v>-0.2998120537358804</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.3932238189978052</v>
+        <v>-0.470598222602185</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.152694691905751</v>
+        <v>-1.999443984758019</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.189847619710631</v>
+        <v>-2.968119362434912</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1.678588802534082</v>
+        <v>-1.676597354793999</v>
       </c>
     </row>
     <row r="6">
@@ -675,52 +675,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2116.195</v>
+        <v>2207.065</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8754333445141051</v>
+        <v>-0.6697668422407405</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.860209504687916</v>
+        <v>-0.8160386215671275</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2742615922907728</v>
+        <v>-0.2760353945003954</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.884891523344725</v>
+        <v>-0.7653011471062969</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7055664236608719</v>
+        <v>-1.243898881627937</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.7256594464995753</v>
+        <v>-0.7566869081585871</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9343721763485394</v>
+        <v>-1.083600848764242</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4252814420219478</v>
+        <v>-0.4369634059966164</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1734391055621043</v>
+        <v>-0.1613729815367844</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.08485162839648244</v>
+        <v>-0.08870602236863609</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.2768346321629915</v>
+        <v>-0.2998120537358804</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3932238189978052</v>
+        <v>-0.470598222602185</v>
       </c>
       <c r="O6" t="n">
-        <v>-1.000527901973124</v>
+        <v>0.3477365382802091</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.5742383284079637</v>
+        <v>-0.4447741502816497</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.7544365647416635</v>
+        <v>-0.7537898138438314</v>
       </c>
     </row>
     <row r="7">
@@ -730,52 +730,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7657.15</v>
+        <v>7358.74</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01541920834490115</v>
+        <v>0.03848313194584081</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2374323892313166</v>
+        <v>-0.2436386217340888</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2742615922907728</v>
+        <v>-0.2760353945003954</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.884891523344725</v>
+        <v>-0.7653011471062969</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05707535935969081</v>
+        <v>0.2708729443511607</v>
       </c>
       <c r="H7" t="n">
-        <v>0.108791271331221</v>
+        <v>0.1135363685758193</v>
       </c>
       <c r="I7" t="n">
-        <v>0.202215665316466</v>
+        <v>0.1708255652211969</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4252814420219478</v>
+        <v>-0.4369634059966164</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1734391055621043</v>
+        <v>-0.1613729815367844</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08485162839648244</v>
+        <v>-0.08870602236863609</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.2768346321629915</v>
+        <v>-0.2998120537358804</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.3932238189978052</v>
+        <v>-0.470598222602185</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2847091667773384</v>
+        <v>0.4530422998306055</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.05125723311576534</v>
+        <v>0.1875123511544549</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.1383350728800509</v>
+        <v>-0.1385847865437198</v>
       </c>
     </row>
     <row r="8">
@@ -785,52 +785,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20265.01</v>
+        <v>21254.705</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8445949278243028</v>
+        <v>0.7467331061324221</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9753440987631138</v>
+        <v>0.9348319661574616</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2742615922907728</v>
+        <v>-0.2760353945003954</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6146025029908234</v>
+        <v>1.306675161511426</v>
       </c>
       <c r="G8" t="n">
-        <v>1.078837345861353</v>
+        <v>0.9488856805881467</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7693077810946886</v>
+        <v>0.8820104621843569</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8195944737448662</v>
+        <v>0.888990593190261</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02940356351239891</v>
+        <v>0.05041924447897494</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1729219659249986</v>
+        <v>-0.1600238430902572</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.08406516515451842</v>
+        <v>-0.08783525164800124</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.1703744522807682</v>
+        <v>-0.1607730796183683</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1170777461223176</v>
+        <v>0.1332632143664955</v>
       </c>
       <c r="O8" t="n">
-        <v>1.052401475196842</v>
+        <v>0.5944031225457114</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3247527646276507</v>
+        <v>0.8304336408410139</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7858171649123681</v>
+        <v>0.7842227544064475</v>
       </c>
     </row>
     <row r="9">
@@ -840,52 +840,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693099.36</v>
+        <v>385051.04</v>
       </c>
       <c r="C9" t="n">
-        <v>1.782792167281616</v>
+        <v>1.454983080319003</v>
       </c>
       <c r="D9" t="n">
-        <v>1.794787671732324</v>
+        <v>1.877608436470702</v>
       </c>
       <c r="E9" t="n">
-        <v>3.646153993519435</v>
+        <v>3.622723824275974</v>
       </c>
       <c r="F9" t="n">
-        <v>2.114096529326372</v>
+        <v>1.306675161511426</v>
       </c>
       <c r="G9" t="n">
-        <v>1.359396554096281</v>
+        <v>0.9961678677951344</v>
       </c>
       <c r="H9" t="n">
-        <v>2.17216031905828</v>
+        <v>1.718763612890517</v>
       </c>
       <c r="I9" t="n">
-        <v>2.418671034091218</v>
+        <v>1.628417085803147</v>
       </c>
       <c r="J9" t="n">
-        <v>14.2108173855324</v>
+        <v>12.65681544648191</v>
       </c>
       <c r="K9" t="n">
-        <v>20.37834682069247</v>
+        <v>16.17731873026641</v>
       </c>
       <c r="L9" t="n">
-        <v>25.46268706470914</v>
+        <v>15.89594578645218</v>
       </c>
       <c r="M9" t="n">
-        <v>17.01752367996633</v>
+        <v>12.17382441294384</v>
       </c>
       <c r="N9" t="n">
-        <v>25.40049115659949</v>
+        <v>10.03768053957526</v>
       </c>
       <c r="O9" t="n">
-        <v>1.430858533528058</v>
+        <v>0.7929365993549454</v>
       </c>
       <c r="P9" t="n">
-        <v>3.406854686216338</v>
+        <v>1.618374770306495</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.709969402704787</v>
+        <v>1.707030295356615</v>
       </c>
     </row>
   </sheetData>
